--- a/templates/ruamds1.xlsx
+++ b/templates/ruamds1.xlsx
@@ -11,27 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Название отчёта</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>{{ | | tableName }}</t>
   </si>
   <si>
     <t>Фильтры:</t>
   </si>
   <si>
-    <t>{{ |filters | name }}</t>
-  </si>
-  <si>
-    <t>{{ |filters | condition }}</t>
-  </si>
-  <si>
-    <t>{{ | | header1 }}</t>
-  </si>
-  <si>
-    <t>{{ | | header2 }}</t>
-  </si>
-  <si>
-    <t>{{ | | header3 }}</t>
+    <t>Название диллера</t>
+  </si>
+  <si>
+    <t>{{ |filters| condition }}</t>
+  </si>
+  <si>
+    <t>Тип диллера</t>
+  </si>
+  <si>
+    <t>Лимит записей</t>
+  </si>
+  <si>
+    <t>Заголовок 1</t>
+  </si>
+  <si>
+    <t>Заголовок 2</t>
+  </si>
+  <si>
+    <t>Заголовок 3</t>
   </si>
   <si>
     <t>{{ |vertical | id }}</t>
@@ -47,10 +53,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -70,12 +82,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -98,27 +122,48 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,43 +392,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ruamds1.xlsx
+++ b/templates/ruamds1.xlsx
@@ -11,24 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>{{ | | tableName }}</t>
-  </si>
-  <si>
-    <t>Фильтры:</t>
-  </si>
-  <si>
-    <t>Название диллера</t>
-  </si>
-  <si>
-    <t>{{ |filters| condition }}</t>
-  </si>
-  <si>
-    <t>Тип диллера</t>
-  </si>
-  <si>
-    <t>Лимит записей</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Search criteria</t>
+  </si>
+  <si>
+    <t>{{ | 1 * search |  condition  }}</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>{{ || date }}</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>{{ || time }}</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Sergey Komarov</t>
   </si>
   <si>
     <t>Заголовок 1</t>
@@ -40,13 +46,13 @@
     <t>Заголовок 3</t>
   </si>
   <si>
-    <t>{{ |vertical | id }}</t>
-  </si>
-  <si>
-    <t>{{ |vertical | DealerName }}</t>
-  </si>
-  <si>
-    <t>{{ |vertical | type }}</t>
+    <t>{{ |table | id }}</t>
+  </si>
+  <si>
+    <t>{{ |table | DealerName }}</t>
+  </si>
+  <si>
+    <t>{{ |table | type }}</t>
   </si>
 </sst>
 </file>
@@ -61,16 +67,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -78,11 +80,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,78 +94,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD5263B"/>
+        <bgColor rgb="FFD5263B"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -381,68 +337,69 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.38"/>
-    <col customWidth="1" min="3" max="3" width="23.25"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="1" max="1" width="21.38"/>
+    <col customWidth="1" min="2" max="2" width="23.25"/>
+    <col customWidth="1" min="3" max="3" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
